--- a/Week7. Final_requirments/Resume7.xlsx
+++ b/Week7. Final_requirments/Resume7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Фамилия</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>Составить окончательный вариант требований на первый виток</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>4-</t>
   </si>
 </sst>
 </file>
@@ -511,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -717,7 +726,9 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>0.8</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
@@ -732,7 +743,9 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>0.8</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
@@ -747,7 +760,9 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
@@ -762,7 +777,9 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>0.8</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
@@ -777,7 +794,9 @@
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
@@ -792,7 +811,9 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
@@ -807,6 +828,9 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
@@ -821,6 +845,9 @@
       <c r="C20" t="s">
         <v>10</v>
       </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
@@ -835,6 +862,9 @@
       <c r="C21" t="s">
         <v>44</v>
       </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -857,57 +887,75 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
